--- a/C2/W3/sched-example-17-EDF-and-LLF-difference-OVERLOAD.xlsx
+++ b/C2/W3/sched-example-17-EDF-and-LLF-difference-OVERLOAD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siewerts\Teaching\1-CU-ECEE-5623-RTES\Timing_Diagrams_Updated_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0ED353-9393-4738-A99D-E43281F97417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7824AD9-7120-4C23-A1BD-9470A3E9FDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27855" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>S1</t>
   </si>
@@ -132,6 +132,9 @@
   <si>
     <t>Example 17</t>
   </si>
+  <si>
+    <t>Miss Warning</t>
+  </si>
 </sst>
 </file>
 
@@ -145,6 +148,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -266,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,6 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3532,10 +3540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX40"/>
+  <dimension ref="A1:AX41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV39" sqref="AV39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5082,20 +5090,20 @@
       <c r="N30" s="25"/>
       <c r="O30" s="33"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="6"/>
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
-      <c r="U30" s="35"/>
+      <c r="U30" s="33"/>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="35"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="33"/>
       <c r="AE30" s="33"/>
       <c r="AF30" s="33"/>
       <c r="AG30" s="33"/>
@@ -5157,17 +5165,17 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="7"/>
+      <c r="U32" s="3"/>
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
-      <c r="AA32" s="20"/>
+      <c r="AA32" s="7"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
       <c r="AD32" s="3"/>
@@ -5215,9 +5223,7 @@
       <c r="T33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="U33" s="21"/>
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
@@ -5280,9 +5286,9 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="20"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="8"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="1"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
@@ -5328,6 +5334,9 @@
       <c r="AF35" s="23" t="s">
         <v>27</v>
       </c>
+      <c r="AG35" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="AU35" s="23" t="s">
         <v>31</v>
       </c>
@@ -5408,16 +5417,16 @@
         <v>2</v>
       </c>
       <c r="R37" s="2">
-        <v>2</v>
-      </c>
-      <c r="S37" s="2">
         <v>1</v>
       </c>
+      <c r="S37" s="40">
+        <v>0</v>
+      </c>
       <c r="T37" s="11">
-        <v>1</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
       </c>
       <c r="V37" s="2">
         <v>2</v>
@@ -5438,15 +5447,15 @@
         <v>2</v>
       </c>
       <c r="AB37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="2">
         <v>1</v>
       </c>
-      <c r="AD37" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="2">
+      <c r="AD37" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="40">
         <v>0</v>
       </c>
       <c r="AF37" s="2">
@@ -5539,19 +5548,19 @@
         <v>3</v>
       </c>
       <c r="O38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>1</v>
-      </c>
-      <c r="S38" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S38" s="40">
+        <v>0</v>
       </c>
       <c r="T38" s="3">
         <v>6</v>
@@ -5560,24 +5569,24 @@
         <v>5</v>
       </c>
       <c r="V38" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="2">
         <v>1</v>
       </c>
-      <c r="AA38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB38" s="2" t="s">
+      <c r="AA38" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="11" t="s">
         <v>16</v>
       </c>
       <c r="AC38" s="3">
@@ -5721,12 +5730,12 @@
         <v>1</v>
       </c>
       <c r="AC39" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="26">
         <v>0</v>
       </c>
-      <c r="AE39" s="26">
+      <c r="AD39" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="37">
         <v>0</v>
       </c>
       <c r="AF39" s="26">
@@ -5785,6 +5794,17 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
+      <c r="AS40" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="S41" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD41" s="42" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
